--- a/src/main/resources/template/excel/export/timeSectionSellReport.xlsx
+++ b/src/main/resources/template/excel/export/timeSectionSellReport.xlsx
@@ -165,7 +165,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -313,6 +316,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -331,7 +337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,7 +626,7 @@
   <dimension ref="A1:EG75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,40 +962,40 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
